--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="205">
   <si>
     <t>Java基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,6 +765,14 @@
   </si>
   <si>
     <t>File文件存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradle 是啥？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidStudio  androidTest目录  单元测试 是个什么玩意？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,9 +846,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -864,7 +869,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1169,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1224,10 +1235,10 @@
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="2:3" ht="24" customHeight="1">
-      <c r="B16" s="4"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="2:2" ht="24" customHeight="1">
-      <c r="B17" s="4"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="2:2" ht="24" customHeight="1">
       <c r="B18" s="3"/>
@@ -1287,41 +1298,41 @@
       </c>
     </row>
     <row r="11" spans="2:3" ht="15">
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="2:3" ht="15">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15">
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="2:3" ht="15">
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="2:3" ht="15">
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="3:3" ht="15">
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="3:3" ht="15">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="3:3" ht="15">
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1369,7 +1380,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1377,61 +1388,61 @@
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="2"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="2"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="2"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="2"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="2"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="2"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="2"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="2"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="2"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="2"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="1" t="s">
         <v>78</v>
       </c>
@@ -1463,7 +1474,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1471,25 +1482,25 @@
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="2"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="2"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="2"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1497,14 +1508,14 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="2"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1512,9 +1523,9 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1522,58 +1533,58 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="2"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1583,10 +1594,10 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1594,15 +1605,15 @@
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="1" t="s">
         <v>134</v>
       </c>
@@ -1639,7 +1650,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -1647,31 +1658,31 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1679,37 +1690,37 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1780,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:C26"/>
+  <dimension ref="B4:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1828,83 +1839,93 @@
       <c r="B13" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15">
       <c r="B14" s="11"/>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15">
-      <c r="B17" s="12"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15">
-      <c r="B18" s="12"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15">
-      <c r="B19" s="12"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="18" customHeight="1">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15">
-      <c r="B22" s="13"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15">
-      <c r="B23" s="13"/>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15">
-      <c r="B24" s="13"/>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15">
-      <c r="B25" s="13"/>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15">
-      <c r="B26" s="13"/>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="5" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1930,95 +1951,95 @@
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A4" s="2"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A5" s="2"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A6" s="2"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A7" s="2"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A8" s="2"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2026,25 +2047,25 @@
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.25" customHeight="1">
       <c r="B14" s="11"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" customHeight="1">
       <c r="B15" s="11"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" customHeight="1">
       <c r="B16" s="11"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2052,13 +2073,13 @@
       <c r="B17" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="18.75" customHeight="1">
       <c r="B18" s="11"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2066,13 +2087,13 @@
       <c r="B19" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="18.75" customHeight="1">
       <c r="B20" s="11"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2080,13 +2101,13 @@
       <c r="B21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="18.75" customHeight="1">
       <c r="B22" s="11"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2124,31 +2145,31 @@
       <c r="B3" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15">
       <c r="B4" s="11"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15">
       <c r="B5" s="11"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="30">
       <c r="B6" s="11"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="30">
       <c r="B7" s="11"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2156,25 +2177,25 @@
       <c r="B8" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15">
       <c r="B9" s="11"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15">
       <c r="B10" s="11"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15">
       <c r="B11" s="11"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2182,13 +2203,13 @@
       <c r="B15" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15">
       <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2219,7 +2240,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2227,7 +2248,7 @@
       </c>
     </row>
     <row r="6" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C6" s="2"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2282,7 +2303,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:3" ht="21.75" customHeight="1">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
@@ -2290,13 +2311,13 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="21.75" customHeight="1">
-      <c r="B5" s="2"/>
+      <c r="B5" s="12"/>
       <c r="C5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="21.75" customHeight="1">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>202</v>
       </c>
       <c r="C6" t="s">
@@ -2304,7 +2325,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" ht="21.75" customHeight="1">
-      <c r="B7" s="2"/>
+      <c r="B7" s="12"/>
       <c r="C7" t="s">
         <v>23</v>
       </c>
@@ -2343,10 +2364,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2354,9 +2375,9 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2364,73 +2385,73 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15">
-      <c r="B12" s="2"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="30">
-      <c r="B13" s="2"/>
+    <row r="13" spans="2:5" ht="15">
+      <c r="B13" s="12"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15">
-      <c r="B14" s="2"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2458,13 +2479,13 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="2:2" ht="15">
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="2:2" ht="15">
-      <c r="B4" s="6"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="2:2" ht="15">
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2487,40 +2508,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="15">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15">
-      <c r="B4" s="12"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15">
-      <c r="B5" s="12"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15">
-      <c r="B6" s="12"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15">
-      <c r="B7" s="12"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15">
-      <c r="B8" s="12"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="5" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2568,7 +2589,7 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C6" t="s">
@@ -2576,36 +2597,36 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="2"/>
+      <c r="B7" s="12"/>
       <c r="C7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2613,36 +2634,36 @@
       <c r="B15" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15">
       <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15">
       <c r="B17" s="11"/>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15">
       <c r="B18" s="11"/>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15">
       <c r="B19" s="11"/>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>124</v>
       </c>
     </row>
